--- a/app/src/main/assets/Computer Programming 1.xlsx
+++ b/app/src/main/assets/Computer Programming 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9C757E-029C-43FD-BA8D-711364886858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD20767-DE02-4ADC-A3BC-1EAB62B88F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4608123A-4B4B-4B5D-84F9-69DB019385C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4608123A-4B4B-4B5D-84F9-69DB019385C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="584">
   <si>
     <t>Basics of Programming</t>
   </si>
@@ -2141,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E2099B-476A-4D76-9FE5-64916CF8740A}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2157,7 +2157,7 @@
     <col min="6" max="6" width="74.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2179,8 +2179,11 @@
       <c r="G1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2202,8 +2205,11 @@
       <c r="G2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2225,8 +2231,11 @@
       <c r="G3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2248,8 +2257,11 @@
       <c r="G4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2271,8 +2283,11 @@
       <c r="G5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2294,8 +2309,11 @@
       <c r="G6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2317,8 +2335,11 @@
       <c r="G7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2340,8 +2361,11 @@
       <c r="G8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2363,8 +2387,11 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2386,8 +2413,11 @@
       <c r="G10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2409,8 +2439,11 @@
       <c r="G11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2432,8 +2465,11 @@
       <c r="G12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2455,8 +2491,11 @@
       <c r="G13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2478,8 +2517,11 @@
       <c r="G14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2501,8 +2543,11 @@
       <c r="G15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -2524,8 +2569,11 @@
       <c r="G16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>240</v>
       </c>
@@ -2547,8 +2595,11 @@
       <c r="G17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -2570,8 +2621,11 @@
       <c r="G18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -2593,8 +2647,11 @@
       <c r="G19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
@@ -2616,8 +2673,11 @@
       <c r="G20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -2639,8 +2699,11 @@
       <c r="G21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -2662,8 +2725,11 @@
       <c r="G22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -2685,8 +2751,11 @@
       <c r="G23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -2708,8 +2777,11 @@
       <c r="G24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -2731,8 +2803,11 @@
       <c r="G25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -2754,8 +2829,11 @@
       <c r="G26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -2777,8 +2855,11 @@
       <c r="G27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -2800,8 +2881,11 @@
       <c r="G28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -2823,8 +2907,11 @@
       <c r="G29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -2846,8 +2933,11 @@
       <c r="G30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>316</v>
       </c>
@@ -2869,8 +2959,11 @@
       <c r="G31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -2892,8 +2985,11 @@
       <c r="G32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>316</v>
       </c>
@@ -2915,8 +3011,11 @@
       <c r="G33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>316</v>
       </c>
@@ -2938,8 +3037,11 @@
       <c r="G34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>316</v>
       </c>
@@ -2961,8 +3063,11 @@
       <c r="G35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>316</v>
       </c>
@@ -2984,8 +3089,11 @@
       <c r="G36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -3007,8 +3115,11 @@
       <c r="G37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
@@ -3030,8 +3141,11 @@
       <c r="G38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -3053,8 +3167,11 @@
       <c r="G39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>316</v>
       </c>
@@ -3076,8 +3193,11 @@
       <c r="G40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -3099,8 +3219,11 @@
       <c r="G41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -3122,8 +3245,11 @@
       <c r="G42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -3145,8 +3271,11 @@
       <c r="G43" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -3168,8 +3297,11 @@
       <c r="G44" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>316</v>
       </c>
@@ -3191,8 +3323,11 @@
       <c r="G45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>368</v>
       </c>
@@ -3214,8 +3349,11 @@
       <c r="G46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -3237,8 +3375,11 @@
       <c r="G47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>368</v>
       </c>
@@ -3260,8 +3401,11 @@
       <c r="G48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>368</v>
       </c>
@@ -3283,8 +3427,11 @@
       <c r="G49" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -3306,8 +3453,11 @@
       <c r="G50" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -3329,8 +3479,11 @@
       <c r="G51" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>368</v>
       </c>
@@ -3352,8 +3505,11 @@
       <c r="G52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>391</v>
       </c>
@@ -3375,8 +3531,11 @@
       <c r="G53" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>391</v>
       </c>
@@ -3398,8 +3557,11 @@
       <c r="G54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>424</v>
       </c>
@@ -3421,8 +3583,11 @@
       <c r="G55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>424</v>
       </c>
@@ -3444,8 +3609,11 @@
       <c r="G56" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>424</v>
       </c>
@@ -3467,8 +3635,11 @@
       <c r="G57" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>424</v>
       </c>
@@ -3490,8 +3661,11 @@
       <c r="G58" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>424</v>
       </c>
@@ -3513,8 +3687,11 @@
       <c r="G59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>448</v>
       </c>
@@ -3536,8 +3713,11 @@
       <c r="G60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>448</v>
       </c>
@@ -3559,8 +3739,11 @@
       <c r="G61" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>448</v>
       </c>
@@ -3582,8 +3765,11 @@
       <c r="G62" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>466</v>
       </c>
@@ -3605,8 +3791,11 @@
       <c r="G63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>466</v>
       </c>
@@ -3628,8 +3817,11 @@
       <c r="G64" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>466</v>
       </c>
@@ -3651,8 +3843,11 @@
       <c r="G65" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>499</v>
       </c>
@@ -3674,8 +3869,11 @@
       <c r="G66" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>499</v>
       </c>
@@ -3697,8 +3895,11 @@
       <c r="G67" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>499</v>
       </c>
@@ -3720,8 +3921,11 @@
       <c r="G68" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>499</v>
       </c>
@@ -3743,8 +3947,11 @@
       <c r="G69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>499</v>
       </c>
@@ -3766,8 +3973,11 @@
       <c r="G70" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>499</v>
       </c>
@@ -3789,8 +3999,11 @@
       <c r="G71" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>527</v>
       </c>
@@ -3812,8 +4025,11 @@
       <c r="G72" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>527</v>
       </c>
@@ -3835,8 +4051,11 @@
       <c r="G73" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>527</v>
       </c>
@@ -3858,8 +4077,11 @@
       <c r="G74" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>527</v>
       </c>
@@ -3881,8 +4103,11 @@
       <c r="G75" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>566</v>
       </c>
@@ -3904,8 +4129,11 @@
       <c r="G76" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>566</v>
       </c>
@@ -3927,8 +4155,11 @@
       <c r="G77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>566</v>
       </c>
@@ -3950,8 +4181,11 @@
       <c r="G78" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>566</v>
       </c>
@@ -3973,8 +4207,11 @@
       <c r="G79" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>566</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="G80" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>566</v>
       </c>
@@ -4019,8 +4259,11 @@
       <c r="G81" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>583</v>
       </c>
@@ -4042,8 +4285,11 @@
       <c r="G82" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>583</v>
       </c>
@@ -4064,6 +4310,9 @@
       </c>
       <c r="G83" t="s">
         <v>54</v>
+      </c>
+      <c r="H83" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4073,10 +4322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDD514D-8CDE-45C1-AE1F-6FCFFCDB3CD3}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4086,7 +4335,7 @@
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4096,8 +4345,11 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4107,8 +4359,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4118,8 +4373,11 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4129,8 +4387,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4140,8 +4401,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4151,8 +4415,11 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4162,8 +4429,11 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4173,8 +4443,11 @@
       <c r="C8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4184,8 +4457,11 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4195,8 +4471,11 @@
       <c r="C10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4206,8 +4485,11 @@
       <c r="C11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4217,8 +4499,11 @@
       <c r="C12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4228,8 +4513,11 @@
       <c r="C13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4239,8 +4527,11 @@
       <c r="C14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4250,8 +4541,11 @@
       <c r="C15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -4261,8 +4555,11 @@
       <c r="C16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>240</v>
       </c>
@@ -4272,8 +4569,11 @@
       <c r="C17" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -4283,8 +4583,11 @@
       <c r="C18" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -4294,8 +4597,11 @@
       <c r="C19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
@@ -4305,8 +4611,11 @@
       <c r="C20" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -4316,8 +4625,11 @@
       <c r="C21" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -4327,8 +4639,11 @@
       <c r="C22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -4338,8 +4653,11 @@
       <c r="C23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -4349,8 +4667,11 @@
       <c r="C24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -4360,8 +4681,11 @@
       <c r="C25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -4371,8 +4695,11 @@
       <c r="C26" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -4382,8 +4709,11 @@
       <c r="C27" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -4393,8 +4723,11 @@
       <c r="C28" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>316</v>
       </c>
@@ -4404,8 +4737,11 @@
       <c r="C29" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>316</v>
       </c>
@@ -4415,8 +4751,11 @@
       <c r="C30" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>316</v>
       </c>
@@ -4426,8 +4765,11 @@
       <c r="C31" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -4437,8 +4779,11 @@
       <c r="C32" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>316</v>
       </c>
@@ -4448,8 +4793,11 @@
       <c r="C33" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>316</v>
       </c>
@@ -4459,8 +4807,11 @@
       <c r="C34" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>316</v>
       </c>
@@ -4470,8 +4821,11 @@
       <c r="C35" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>316</v>
       </c>
@@ -4481,8 +4835,11 @@
       <c r="C36" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -4492,8 +4849,11 @@
       <c r="C37" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
@@ -4503,8 +4863,11 @@
       <c r="C38" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -4514,8 +4877,11 @@
       <c r="C39" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>316</v>
       </c>
@@ -4525,8 +4891,11 @@
       <c r="C40" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -4536,8 +4905,11 @@
       <c r="C41" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -4547,8 +4919,11 @@
       <c r="C42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -4558,8 +4933,11 @@
       <c r="C43" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>368</v>
       </c>
@@ -4569,8 +4947,11 @@
       <c r="C44" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -4580,8 +4961,11 @@
       <c r="C45" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>368</v>
       </c>
@@ -4591,8 +4975,11 @@
       <c r="C46" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -4602,8 +4989,11 @@
       <c r="C47" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>368</v>
       </c>
@@ -4613,8 +5003,11 @@
       <c r="C48" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>368</v>
       </c>
@@ -4624,8 +5017,11 @@
       <c r="C49" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -4635,8 +5031,11 @@
       <c r="C50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -4646,8 +5045,11 @@
       <c r="C51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>368</v>
       </c>
@@ -4657,8 +5059,11 @@
       <c r="C52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>391</v>
       </c>
@@ -4668,8 +5073,11 @@
       <c r="C53" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>391</v>
       </c>
@@ -4679,8 +5087,11 @@
       <c r="C54" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>391</v>
       </c>
@@ -4690,8 +5101,11 @@
       <c r="C55" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -4701,8 +5115,11 @@
       <c r="C56" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>424</v>
       </c>
@@ -4712,8 +5129,11 @@
       <c r="C57" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>424</v>
       </c>
@@ -4723,8 +5143,11 @@
       <c r="C58" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>424</v>
       </c>
@@ -4734,8 +5157,11 @@
       <c r="C59" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>448</v>
       </c>
@@ -4745,8 +5171,11 @@
       <c r="C60" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>448</v>
       </c>
@@ -4756,8 +5185,11 @@
       <c r="C61" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>448</v>
       </c>
@@ -4767,8 +5199,11 @@
       <c r="C62" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>448</v>
       </c>
@@ -4778,8 +5213,11 @@
       <c r="C63" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>466</v>
       </c>
@@ -4789,8 +5227,11 @@
       <c r="C64" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>466</v>
       </c>
@@ -4800,8 +5241,11 @@
       <c r="C65" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>466</v>
       </c>
@@ -4811,8 +5255,11 @@
       <c r="C66" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>499</v>
       </c>
@@ -4822,8 +5269,11 @@
       <c r="C67" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>499</v>
       </c>
@@ -4833,8 +5283,11 @@
       <c r="C68" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>499</v>
       </c>
@@ -4844,8 +5297,11 @@
       <c r="C69" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>527</v>
       </c>
@@ -4855,8 +5311,11 @@
       <c r="C70" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>527</v>
       </c>
@@ -4866,8 +5325,11 @@
       <c r="C71" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>527</v>
       </c>
@@ -4877,8 +5339,11 @@
       <c r="C72" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>527</v>
       </c>
@@ -4888,8 +5353,11 @@
       <c r="C73" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>566</v>
       </c>
@@ -4899,8 +5367,11 @@
       <c r="C74" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>566</v>
       </c>
@@ -4910,8 +5381,11 @@
       <c r="C75" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>566</v>
       </c>
@@ -4921,8 +5395,11 @@
       <c r="C76" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>566</v>
       </c>
@@ -4932,8 +5409,11 @@
       <c r="C77" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>566</v>
       </c>
@@ -4943,8 +5423,11 @@
       <c r="C78" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>566</v>
       </c>
@@ -4954,8 +5437,11 @@
       <c r="C79" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>566</v>
       </c>
@@ -4965,8 +5451,11 @@
       <c r="C80" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>583</v>
       </c>
@@ -4976,8 +5465,11 @@
       <c r="C81" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>583</v>
       </c>
@@ -4986,6 +5478,9 @@
       </c>
       <c r="C82" t="s">
         <v>575</v>
+      </c>
+      <c r="D82" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4995,10 +5490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44644D04-EB58-4E33-A44A-8FBFBEC21C98}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,7 +5502,7 @@
     <col min="2" max="2" width="151.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5017,8 +5512,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5028,8 +5526,11 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5039,8 +5540,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5050,8 +5554,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5061,8 +5568,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5072,8 +5582,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5083,8 +5596,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5094,8 +5610,11 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5105,8 +5624,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5116,8 +5638,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5127,8 +5652,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5138,8 +5666,11 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5149,8 +5680,11 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5160,8 +5694,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5171,8 +5708,11 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -5182,8 +5722,11 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>240</v>
       </c>
@@ -5193,8 +5736,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -5204,8 +5750,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -5215,8 +5764,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
@@ -5226,8 +5778,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -5237,8 +5792,11 @@
       <c r="C21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -5248,8 +5806,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -5259,8 +5820,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -5270,8 +5834,11 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -5281,8 +5848,11 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -5292,8 +5862,11 @@
       <c r="C26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -5303,8 +5876,11 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -5314,8 +5890,11 @@
       <c r="C28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -5325,8 +5904,11 @@
       <c r="C29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>316</v>
       </c>
@@ -5336,8 +5918,11 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>316</v>
       </c>
@@ -5347,8 +5932,11 @@
       <c r="C31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -5358,8 +5946,11 @@
       <c r="C32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>316</v>
       </c>
@@ -5369,8 +5960,11 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>316</v>
       </c>
@@ -5380,8 +5974,11 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>316</v>
       </c>
@@ -5391,8 +5988,11 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>316</v>
       </c>
@@ -5402,8 +6002,11 @@
       <c r="C36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -5413,8 +6016,11 @@
       <c r="C37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
@@ -5424,8 +6030,11 @@
       <c r="C38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -5435,8 +6044,11 @@
       <c r="C39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>316</v>
       </c>
@@ -5446,8 +6058,11 @@
       <c r="C40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>316</v>
       </c>
@@ -5457,8 +6072,11 @@
       <c r="C41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -5468,8 +6086,11 @@
       <c r="C42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>316</v>
       </c>
@@ -5479,8 +6100,11 @@
       <c r="C43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -5490,8 +6114,11 @@
       <c r="C44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -5501,8 +6128,11 @@
       <c r="C45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>368</v>
       </c>
@@ -5512,8 +6142,11 @@
       <c r="C46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -5523,8 +6156,11 @@
       <c r="C47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>368</v>
       </c>
@@ -5534,8 +6170,11 @@
       <c r="C48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>368</v>
       </c>
@@ -5545,8 +6184,11 @@
       <c r="C49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -5556,8 +6198,11 @@
       <c r="C50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -5567,8 +6212,11 @@
       <c r="C51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>368</v>
       </c>
@@ -5578,8 +6226,11 @@
       <c r="C52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>368</v>
       </c>
@@ -5589,8 +6240,11 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>391</v>
       </c>
@@ -5600,8 +6254,11 @@
       <c r="C54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>391</v>
       </c>
@@ -5611,8 +6268,11 @@
       <c r="C55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -5622,8 +6282,11 @@
       <c r="C56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>391</v>
       </c>
@@ -5633,8 +6296,11 @@
       <c r="C57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>424</v>
       </c>
@@ -5644,8 +6310,11 @@
       <c r="C58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>424</v>
       </c>
@@ -5655,8 +6324,11 @@
       <c r="C59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>448</v>
       </c>
@@ -5666,8 +6338,11 @@
       <c r="C60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>448</v>
       </c>
@@ -5677,8 +6352,11 @@
       <c r="C61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>448</v>
       </c>
@@ -5688,8 +6366,11 @@
       <c r="C62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>448</v>
       </c>
@@ -5699,8 +6380,11 @@
       <c r="C63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>448</v>
       </c>
@@ -5710,8 +6394,11 @@
       <c r="C64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>448</v>
       </c>
@@ -5721,8 +6408,11 @@
       <c r="C65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>466</v>
       </c>
@@ -5732,8 +6422,11 @@
       <c r="C66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>466</v>
       </c>
@@ -5743,8 +6436,11 @@
       <c r="C67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>466</v>
       </c>
@@ -5754,8 +6450,11 @@
       <c r="C68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -5765,8 +6464,11 @@
       <c r="C69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>499</v>
       </c>
@@ -5776,8 +6478,11 @@
       <c r="C70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>499</v>
       </c>
@@ -5787,8 +6492,11 @@
       <c r="C71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>499</v>
       </c>
@@ -5798,8 +6506,11 @@
       <c r="C72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>499</v>
       </c>
@@ -5809,8 +6520,11 @@
       <c r="C73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>499</v>
       </c>
@@ -5820,8 +6534,11 @@
       <c r="C74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>499</v>
       </c>
@@ -5831,8 +6548,11 @@
       <c r="C75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>499</v>
       </c>
@@ -5842,8 +6562,11 @@
       <c r="C76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>527</v>
       </c>
@@ -5853,8 +6576,11 @@
       <c r="C77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>527</v>
       </c>
@@ -5864,8 +6590,11 @@
       <c r="C78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>527</v>
       </c>
@@ -5875,8 +6604,11 @@
       <c r="C79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>527</v>
       </c>
@@ -5886,8 +6618,11 @@
       <c r="C80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>566</v>
       </c>
@@ -5897,8 +6632,11 @@
       <c r="C81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>566</v>
       </c>
@@ -5908,8 +6646,11 @@
       <c r="C82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>566</v>
       </c>
@@ -5919,8 +6660,11 @@
       <c r="C83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>566</v>
       </c>
@@ -5930,8 +6674,11 @@
       <c r="C84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>583</v>
       </c>
@@ -5941,8 +6688,11 @@
       <c r="C85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>583</v>
       </c>
@@ -5952,8 +6702,11 @@
       <c r="C86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>583</v>
       </c>
@@ -5962,6 +6715,9 @@
       </c>
       <c r="C87" t="b">
         <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
